--- a/NoNameCo FPA & valuation.xlsx
+++ b/NoNameCo FPA & valuation.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:18001_{AAB5A70B-9679-E241-ADEB-526913C702F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{BBD1E2E6-6F48-C442-9738-562DC1954087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here" sheetId="25" r:id="rId1"/>
@@ -8161,7 +8161,7 @@
   </sheetPr>
   <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -8358,7 +8358,7 @@
   </sheetPr>
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showOutlineSymbols="0" zoomScale="106" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
@@ -9893,7 +9893,7 @@
   </sheetPr>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
@@ -10715,7 +10715,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
@@ -11229,7 +11229,7 @@
   </sheetPr>
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -13446,7 +13446,7 @@
   </sheetPr>
   <dimension ref="B2:M139"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
@@ -15226,7 +15226,7 @@
   </sheetPr>
   <dimension ref="B1:K121"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -17383,7 +17383,7 @@
   </sheetPr>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
@@ -17544,7 +17544,7 @@
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C18" s="56"/>
     </row>
-    <row r="19" spans="2:7" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="34" x14ac:dyDescent="0.15">
       <c r="B19" s="136" t="s">
         <v>364</v>
       </c>
@@ -20150,7 +20150,7 @@
         <v>11.04042093</v>
       </c>
     </row>
-    <row r="175" spans="2:7" ht="17" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:7" ht="34" x14ac:dyDescent="0.15">
       <c r="B175" s="136" t="s">
         <v>365</v>
       </c>
@@ -20236,7 +20236,7 @@
   </sheetPr>
   <dimension ref="B2:N29"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -20670,7 +20670,7 @@
   </sheetPr>
   <dimension ref="B1:L43"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -21415,7 +21415,7 @@
   </sheetPr>
   <dimension ref="B2:Q56"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -22589,7 +22589,7 @@
   </sheetPr>
   <dimension ref="B1:K62"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>

--- a/NoNameCo FPA & valuation.xlsx
+++ b/NoNameCo FPA & valuation.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <fileSharing userName="Microsoft Office User" algorithmName="SHA-512" hashValue="5jZlUk45v0XubBLeIi3gijOOpFg8Tx/l6rIMpOmvnWmfbOAfd5wkB0T6BA9mwYxVaK/S6vAJb/fQmsJReLPGFA==" saltValue="HwyVfi4SxyBeAnIvSdTxBQ==" spinCount="100000"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{BBD1E2E6-6F48-C442-9738-562DC1954087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{C771E1D4-6772-E24B-BD26-D69582F8B010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here" sheetId="25" r:id="rId1"/>
@@ -1329,7 +1328,7 @@
     <numFmt numFmtId="181" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="182" formatCode="#,##0.00000000"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -1452,31 +1451,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="8" tint="0.79998168889431442"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Arial"/>
@@ -1485,19 +1459,6 @@
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1515,54 +1476,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF203764"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="6" tint="0.59999389629810485"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1576,6 +1497,71 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="6" tint="0.59999389629810485"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8" tint="0.79998168889431442"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF203764"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1691,7 +1677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2015,7 +2001,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2365,7 +2351,7 @@
     <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
@@ -2482,13 +2468,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2515,7 +2501,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
@@ -2533,7 +2519,7 @@
     <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2575,16 +2561,16 @@
     <xf numFmtId="173" fontId="11" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="178" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2593,10 +2579,10 @@
     <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
@@ -2635,10 +2621,10 @@
     <xf numFmtId="176" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="170" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2653,13 +2639,13 @@
     <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="37" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="26" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2920,102 +2906,100 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="33" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="34" fillId="15" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="34" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="35" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="33" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="33" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="36" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="33" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="33" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="33" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="33" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="36" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="36" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="33" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="33" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="24" fillId="19" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="24" fillId="19" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="29" fillId="19" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="29" fillId="19" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="24" fillId="19" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="24" fillId="19" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="29" fillId="19" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="29" fillId="19" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="24" fillId="19" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="24" fillId="19" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="19" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="19" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="19" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="32" fillId="15" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="32" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="22" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="17" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="17" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="36" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="17" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="10" fontId="36" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="36" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="17" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="10" fontId="17" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="29" fillId="19" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7714,15 +7698,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1128663</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>155767</xdr:rowOff>
+      <xdr:colOff>734963</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>550332</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:colOff>156632</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7753,15 +7737,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1245850</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>157594</xdr:rowOff>
+      <xdr:colOff>788650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>43294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>52917</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>137583</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141817</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>48683</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7792,15 +7776,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1153584</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>198966</xdr:rowOff>
+      <xdr:colOff>645584</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>535901</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>27901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8161,7 +8145,7 @@
   </sheetPr>
   <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -8314,36 +8298,36 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="344" t="s">
+      <c r="B25" s="303" t="s">
         <v>377</v>
       </c>
-      <c r="C25" s="345"/>
+      <c r="C25" s="304"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="346"/>
-      <c r="C26" s="346"/>
+      <c r="B26" s="305"/>
+      <c r="C26" s="305"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="346"/>
-      <c r="C27" s="346"/>
+      <c r="B27" s="305"/>
+      <c r="C27" s="305"/>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="347" t="s">
+      <c r="B28" s="306" t="s">
         <v>375</v>
       </c>
-      <c r="C28" s="347"/>
+      <c r="C28" s="306"/>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="348" t="s">
+      <c r="B29" s="307" t="s">
         <v>378</v>
       </c>
-      <c r="C29" s="348"/>
+      <c r="C29" s="307"/>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="348" t="s">
+      <c r="B30" s="307" t="s">
         <v>376</v>
       </c>
-      <c r="C30" s="346"/>
+      <c r="C30" s="305"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="upR6tBTQXkllPIx57gKpexkhUlVTJUa9ECq5xTXm4R55l0HLnDx77aZeN3DT69IRK+6SoEwrkduV/rIPNj05xg==" saltValue="CJpe7CaF5be7C6fHfri6bA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -15246,11 +15230,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="349" t="str">
+      <c r="B1" s="308" t="str">
         <f>Input!B2</f>
         <v>Noname co, by elie diwambuena</v>
       </c>
-      <c r="C1" s="349"/>
+      <c r="C1" s="308"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.15">
       <c r="B2" s="107"/>
@@ -18063,9 +18047,9 @@
         <f>Calcul!D121</f>
         <v>7.567439903697612E-2</v>
       </c>
-      <c r="E53" s="352"/>
-      <c r="F53" s="353"/>
-      <c r="G53" s="354"/>
+      <c r="E53" s="311"/>
+      <c r="F53" s="312"/>
+      <c r="G53" s="313"/>
       <c r="H53" s="51"/>
       <c r="I53" s="1"/>
       <c r="J53" s="51"/>
@@ -18182,10 +18166,10 @@
         <f>SUM(D57:G57)</f>
         <v>0.83305353457447939</v>
       </c>
-      <c r="D58" s="352"/>
-      <c r="E58" s="353"/>
-      <c r="F58" s="353"/>
-      <c r="G58" s="354"/>
+      <c r="D58" s="311"/>
+      <c r="E58" s="312"/>
+      <c r="F58" s="312"/>
+      <c r="G58" s="313"/>
       <c r="H58" s="51"/>
       <c r="I58" s="2"/>
       <c r="J58" s="51"/>
@@ -18199,12 +18183,12 @@
         <f>IRR(D49:G49)</f>
         <v>0.24954953354154941</v>
       </c>
-      <c r="D59" s="355" t="s">
+      <c r="D59" s="314" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="356"/>
-      <c r="F59" s="356"/>
-      <c r="G59" s="357"/>
+      <c r="E59" s="315"/>
+      <c r="F59" s="315"/>
+      <c r="G59" s="316"/>
       <c r="H59" s="51"/>
       <c r="I59" s="2"/>
       <c r="J59" s="51"/>
@@ -19932,9 +19916,9 @@
         <v>7.1945421151312514E-2</v>
       </c>
       <c r="D154" s="8"/>
-      <c r="E154" s="350"/>
-      <c r="F154" s="350"/>
-      <c r="G154" s="350"/>
+      <c r="E154" s="309"/>
+      <c r="F154" s="309"/>
+      <c r="G154" s="309"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B155" s="3" t="s">
@@ -19996,10 +19980,10 @@
       <c r="B158" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C158" s="352"/>
-      <c r="D158" s="353"/>
-      <c r="E158" s="353"/>
-      <c r="F158" s="354"/>
+      <c r="C158" s="311"/>
+      <c r="D158" s="312"/>
+      <c r="E158" s="312"/>
+      <c r="F158" s="313"/>
       <c r="G158" s="153">
         <f>G153*(1+C155)/(C154-C155)</f>
         <v>7.9469762786676528</v>
@@ -20035,10 +20019,10 @@
         <f>SUM(D159:G159)</f>
         <v>6.8068176525090802</v>
       </c>
-      <c r="D160" s="350"/>
-      <c r="E160" s="350"/>
-      <c r="F160" s="350"/>
-      <c r="G160" s="350"/>
+      <c r="D160" s="309"/>
+      <c r="E160" s="309"/>
+      <c r="F160" s="309"/>
+      <c r="G160" s="309"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="3" t="s">
@@ -20061,13 +20045,13 @@
         <f>C160-C161</f>
         <v>6.4911176525090806</v>
       </c>
-      <c r="D162" s="351" t="str">
+      <c r="D162" s="310" t="str">
         <f>"Greater than "  &amp;Input!C85</f>
         <v>Greater than 1.32825</v>
       </c>
-      <c r="E162" s="351"/>
-      <c r="F162" s="351"/>
-      <c r="G162" s="351"/>
+      <c r="E162" s="310"/>
+      <c r="F162" s="310"/>
+      <c r="G162" s="310"/>
     </row>
     <row r="165" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B165" s="6" t="s">
@@ -20691,15 +20675,15 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="16" x14ac:dyDescent="0.15">
-      <c r="B3" s="358" t="s">
+      <c r="B3" s="317" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="358"/>
-      <c r="D3" s="358"/>
-      <c r="E3" s="358"/>
-      <c r="F3" s="358"/>
-      <c r="G3" s="358"/>
-      <c r="H3" s="358"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="317"/>
       <c r="I3" s="198"/>
       <c r="J3" s="198"/>
       <c r="K3" s="198"/>
@@ -22589,756 +22573,746 @@
   </sheetPr>
   <dimension ref="B1:K62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="323"/>
-    <col min="2" max="2" width="61" style="323" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="323" customWidth="1"/>
-    <col min="4" max="5" width="14.25" style="323" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="323" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="323" customWidth="1"/>
-    <col min="8" max="8" width="26.25" style="323" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="323" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="323" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="323" customWidth="1"/>
-    <col min="12" max="16384" width="10.75" style="323"/>
+    <col min="1" max="1" width="10.75" style="318"/>
+    <col min="2" max="2" width="61" style="318" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="318" customWidth="1"/>
+    <col min="4" max="5" width="14.25" style="318" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="318" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="318" customWidth="1"/>
+    <col min="8" max="8" width="26.25" style="318" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="318" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="318" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="318" customWidth="1"/>
+    <col min="12" max="16384" width="10.75" style="318"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="304" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:11" s="304" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="B2" s="305" t="str">
+    <row r="1" spans="2:11" s="339" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:11" s="339" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="340" t="str">
         <f>Input!B2</f>
         <v>Noname co, by elie diwambuena</v>
       </c>
-      <c r="C2" s="306"/>
-    </row>
-    <row r="3" spans="2:11" s="304" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="B3" s="306"/>
-      <c r="C3" s="306"/>
-    </row>
-    <row r="4" spans="2:11" s="304" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="307" t="s">
+    </row>
+    <row r="3" spans="2:11" s="339" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:11" s="339" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="340" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="303">
+      <c r="C4" s="341">
         <v>0</v>
       </c>
-      <c r="D4" s="308"/>
-      <c r="G4" s="309" t="s">
+      <c r="G4" s="342" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="310" t="str">
+      <c r="H4" s="343" t="str">
         <f>C20</f>
         <v>FY11</v>
       </c>
-      <c r="I4" s="311" t="str">
+      <c r="I4" s="344" t="str">
         <f>D20</f>
         <v>FY12</v>
       </c>
-      <c r="J4" s="308"/>
-      <c r="K4" s="308"/>
-    </row>
-    <row r="5" spans="2:11" s="304" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="312" t="s">
+    </row>
+    <row r="5" spans="2:11" s="339" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="345" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="313">
+      <c r="C5" s="346">
         <v>0</v>
       </c>
-      <c r="D5" s="307"/>
-      <c r="G5" s="314" t="s">
+      <c r="D5" s="347"/>
+      <c r="G5" s="348" t="s">
         <v>279</v>
       </c>
-      <c r="H5" s="315">
+      <c r="H5" s="349">
         <f>C26</f>
         <v>0.62348205300234816</v>
       </c>
-      <c r="I5" s="316">
+      <c r="I5" s="350">
         <f>D26</f>
         <v>0.60649411960606414</v>
       </c>
-      <c r="J5" s="317" t="s">
+      <c r="J5" s="351" t="s">
         <v>280</v>
       </c>
-      <c r="K5" s="359" t="s">
+      <c r="K5" s="352" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="304" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="312" t="s">
+    <row r="6" spans="2:11" s="339" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="345" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="313">
+      <c r="C6" s="346">
         <v>1</v>
       </c>
-      <c r="D6" s="308"/>
-      <c r="G6" s="318" t="s">
+      <c r="G6" s="353" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="319">
+      <c r="H6" s="354">
         <f>C27</f>
         <v>3.466639144566614</v>
       </c>
-      <c r="I6" s="320">
+      <c r="I6" s="355">
         <f>D27</f>
         <v>3.3396591075966766</v>
       </c>
-      <c r="J6" s="321" t="s">
+      <c r="J6" s="356" t="s">
         <v>283</v>
       </c>
-      <c r="K6" s="359"/>
-    </row>
-    <row r="7" spans="2:11" s="304" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="312" t="s">
+      <c r="K6" s="352"/>
+    </row>
+    <row r="7" spans="2:11" s="339" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="345" t="s">
         <v>366</v>
       </c>
-      <c r="C7" s="313">
+      <c r="C7" s="346">
         <v>2</v>
       </c>
-      <c r="D7" s="308"/>
-    </row>
-    <row r="8" spans="2:11" s="304" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="312" t="s">
+    </row>
+    <row r="8" spans="2:11" s="339" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="345" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="313">
+      <c r="C8" s="346">
         <v>3</v>
       </c>
-      <c r="D8" s="308"/>
-    </row>
-    <row r="9" spans="2:11" s="304" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G9" s="322"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G10" s="324"/>
-    </row>
-    <row r="11" spans="2:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="325" t="s">
+    </row>
+    <row r="9" spans="2:11" s="339" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="357"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G10" s="319"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="320" t="s">
         <v>285</v>
       </c>
-      <c r="C11" s="326" t="str">
+      <c r="C11" s="321" t="str">
         <f>Input!C7</f>
         <v>FY11</v>
       </c>
-      <c r="D11" s="326" t="str">
+      <c r="D11" s="321" t="str">
         <f>Input!D7</f>
         <v>FY12</v>
       </c>
-      <c r="E11" s="326" t="str">
+      <c r="E11" s="321" t="str">
         <f>Input!E7</f>
         <v>FY13</v>
       </c>
-      <c r="F11" s="326" t="str">
+      <c r="F11" s="321" t="str">
         <f>Input!F7</f>
         <v>FY14</v>
       </c>
-      <c r="G11" s="326" t="str">
+      <c r="G11" s="321" t="str">
         <f>Input!G7</f>
         <v>FY15</v>
       </c>
-      <c r="H11" s="327"/>
-      <c r="I11" s="328"/>
-      <c r="J11" s="328"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="323" t="s">
+      <c r="H11" s="322"/>
+      <c r="I11" s="323"/>
+      <c r="J11" s="323"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="D12" s="329">
+      <c r="D12" s="324">
         <f>SUM(CF!D13,CF!D16)</f>
         <v>-0.16776563634247382</v>
       </c>
-      <c r="E12" s="329">
+      <c r="E12" s="324">
         <f>SUM(CF!E13,CF!E16)</f>
         <v>-9.5053841557396712E-2</v>
       </c>
-      <c r="F12" s="329">
+      <c r="F12" s="324">
         <f>SUM(CF!F13,CF!F16)</f>
         <v>9.9590782921014309E-2</v>
       </c>
-      <c r="G12" s="329">
+      <c r="G12" s="324">
         <f>SUM(CF!G13,CF!G16)</f>
         <v>0.54603211221909831</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="323" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="318" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="324">
+      <c r="C13" s="319">
         <f>Calcul!D121</f>
         <v>7.567439903697612E-2</v>
       </c>
-      <c r="D13" s="329"/>
-      <c r="E13" s="329"/>
-      <c r="F13" s="329"/>
-      <c r="G13" s="329"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="323" t="s">
+      <c r="D13" s="324"/>
+      <c r="E13" s="324"/>
+      <c r="F13" s="324"/>
+      <c r="G13" s="324"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B14" s="318" t="s">
         <v>287</v>
       </c>
-      <c r="D14" s="329">
+      <c r="D14" s="324">
         <f>0.5</f>
         <v>0.5</v>
       </c>
-      <c r="E14" s="329">
+      <c r="E14" s="324">
         <f>D14+1</f>
         <v>1.5</v>
       </c>
-      <c r="F14" s="329">
+      <c r="F14" s="324">
         <f t="shared" ref="F14:G14" si="0">E14+1</f>
         <v>2.5</v>
       </c>
-      <c r="G14" s="329">
+      <c r="G14" s="324">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="323" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="318" t="s">
         <v>288</v>
       </c>
-      <c r="D15" s="329">
+      <c r="D15" s="324">
         <f>1/(1+$C$13)^D14</f>
         <v>0.9641832525702988</v>
       </c>
-      <c r="E15" s="329">
+      <c r="E15" s="324">
         <f t="shared" ref="E15:G15" si="1">1/(1+$C$13)^E14</f>
         <v>0.89635232876557025</v>
       </c>
-      <c r="F15" s="329">
+      <c r="F15" s="324">
         <f t="shared" si="1"/>
         <v>0.8332933549111623</v>
       </c>
-      <c r="G15" s="329">
+      <c r="G15" s="324">
         <f t="shared" si="1"/>
         <v>0.77467062120023367</v>
       </c>
-      <c r="H15" s="330"/>
-      <c r="I15" s="330"/>
-      <c r="J15" s="330"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="323" t="s">
+      <c r="H15" s="325"/>
+      <c r="I15" s="325"/>
+      <c r="J15" s="325"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="318" t="s">
         <v>289</v>
       </c>
-      <c r="D16" s="329">
+      <c r="D16" s="324">
         <f>D15*D12</f>
         <v>-0.16175681691821234</v>
       </c>
-      <c r="E16" s="329">
+      <c r="E16" s="324">
         <f t="shared" ref="E16:G16" si="2">E15*E12</f>
         <v>-8.5201732238086081E-2</v>
       </c>
-      <c r="F16" s="329">
+      <c r="F16" s="324">
         <f t="shared" si="2"/>
         <v>8.2988337618481303E-2</v>
       </c>
-      <c r="G16" s="329">
+      <c r="G16" s="324">
         <f t="shared" si="2"/>
         <v>0.42299503556804458</v>
       </c>
-      <c r="H16" s="331"/>
-      <c r="I16" s="331"/>
-      <c r="J16" s="331"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="332" t="s">
+      <c r="H16" s="326"/>
+      <c r="I16" s="326"/>
+      <c r="J16" s="326"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="327" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="333">
+      <c r="C17" s="328">
         <f>SUM(D16:G16)</f>
         <v>0.25902482403022747</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="325" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="320" t="s">
         <v>290</v>
       </c>
-      <c r="C20" s="326" t="str">
+      <c r="C20" s="321" t="str">
         <f>C11</f>
         <v>FY11</v>
       </c>
-      <c r="D20" s="326" t="str">
+      <c r="D20" s="321" t="str">
         <f t="shared" ref="D20:G20" si="3">D11</f>
         <v>FY12</v>
       </c>
-      <c r="E20" s="326" t="str">
+      <c r="E20" s="321" t="str">
         <f t="shared" si="3"/>
         <v>FY13</v>
       </c>
-      <c r="F20" s="326" t="str">
+      <c r="F20" s="321" t="str">
         <f t="shared" si="3"/>
         <v>FY14</v>
       </c>
-      <c r="G20" s="326" t="str">
+      <c r="G20" s="321" t="str">
         <f t="shared" si="3"/>
         <v>FY15</v>
       </c>
-      <c r="H20" s="328"/>
-      <c r="I20" s="328"/>
-    </row>
-    <row r="21" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="323" t="s">
+      <c r="H20" s="323"/>
+      <c r="I20" s="323"/>
+    </row>
+    <row r="21" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="318" t="s">
         <v>291</v>
       </c>
-      <c r="C21" s="334">
+      <c r="C21" s="329">
         <f>BS!C38/BS!C21</f>
         <v>0.28846528010734651</v>
       </c>
-      <c r="D21" s="334">
+      <c r="D21" s="329">
         <f>BS!D38/BS!D21</f>
         <v>0.2994317586861826</v>
       </c>
-      <c r="E21" s="334">
+      <c r="E21" s="329">
         <f>BS!E38/BS!E21</f>
         <v>0.31176042136694204</v>
       </c>
-      <c r="F21" s="334">
+      <c r="F21" s="329">
         <f>BS!F38/BS!F21</f>
         <v>0.3247618394627132</v>
       </c>
-      <c r="G21" s="334">
+      <c r="G21" s="329">
         <f>BS!G38/BS!G21</f>
         <v>0.33954750525115968</v>
       </c>
-      <c r="H21" s="334"/>
-      <c r="I21" s="334"/>
-    </row>
-    <row r="22" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="323" t="s">
+      <c r="H21" s="329"/>
+      <c r="I21" s="329"/>
+    </row>
+    <row r="22" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="318" t="s">
         <v>292</v>
       </c>
-      <c r="C22" s="335">
+      <c r="C22" s="330">
         <f>BS!C38/BS!C34</f>
         <v>0.40540992881052285</v>
       </c>
-      <c r="D22" s="335">
+      <c r="D22" s="330">
         <f>BS!D38/BS!D34</f>
         <v>0.42741269305134411</v>
       </c>
-      <c r="E22" s="335">
+      <c r="E22" s="330">
         <f>BS!E38/BS!E34</f>
         <v>0.45298240764668418</v>
       </c>
-      <c r="F22" s="335">
+      <c r="F22" s="330">
         <f>BS!F38/BS!F34</f>
         <v>0.48095895410339412</v>
       </c>
-      <c r="G22" s="335">
+      <c r="G22" s="330">
         <f>BS!G38/BS!G34</f>
         <v>0.51411344184608498</v>
       </c>
-      <c r="H22" s="336"/>
-      <c r="I22" s="336"/>
-    </row>
-    <row r="23" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="323" t="s">
+      <c r="H22" s="331"/>
+      <c r="I22" s="331"/>
+    </row>
+    <row r="23" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="318" t="s">
         <v>293</v>
       </c>
-      <c r="C23" s="335">
+      <c r="C23" s="330">
         <f>'Noname co'!G14/'Noname co'!G64</f>
         <v>0.27284577695869056</v>
       </c>
-      <c r="D23" s="335">
+      <c r="D23" s="330">
         <f>PL!D13/BS!D33</f>
         <v>0.29632725291408707</v>
       </c>
-      <c r="E23" s="335">
+      <c r="E23" s="330">
         <f>PL!E13/BS!E33</f>
         <v>0.33637147628085584</v>
       </c>
-      <c r="F23" s="335">
+      <c r="F23" s="330">
         <f>PL!F13/BS!F33</f>
         <v>0.33637147628085623</v>
       </c>
-      <c r="G23" s="335">
+      <c r="G23" s="330">
         <f>PL!G13/BS!G33</f>
         <v>0.33637147628085573</v>
       </c>
-      <c r="H23" s="337"/>
-      <c r="I23" s="337"/>
-    </row>
-    <row r="24" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="323" t="s">
+      <c r="H23" s="332"/>
+      <c r="I23" s="332"/>
+    </row>
+    <row r="24" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="318" t="s">
         <v>294</v>
       </c>
-      <c r="C24" s="335">
+      <c r="C24" s="330">
         <f>'Noname co'!G14/SUM('Noname co'!G58,'Noname co'!G60)</f>
         <v>0.4067001675041868</v>
       </c>
-      <c r="D24" s="335">
+      <c r="D24" s="330">
         <f>PL!D13/SUM(BS!D29,BS!D27)</f>
         <v>0.40399660061636467</v>
       </c>
-      <c r="E24" s="335">
+      <c r="E24" s="330">
         <f>PL!E13/SUM(BS!E29,BS!E27)</f>
         <v>0.45859073583479248</v>
       </c>
-      <c r="F24" s="335">
+      <c r="F24" s="330">
         <f>PL!F13/SUM(BS!F29,BS!F27)</f>
         <v>0.45859073583479321</v>
       </c>
-      <c r="G24" s="335">
+      <c r="G24" s="330">
         <f>PL!G13/SUM(BS!G29,BS!G27)</f>
         <v>0.45859073583479237</v>
       </c>
-      <c r="H24" s="336"/>
-      <c r="I24" s="336"/>
-    </row>
-    <row r="25" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="323" t="s">
+      <c r="H24" s="331"/>
+      <c r="I24" s="331"/>
+    </row>
+    <row r="25" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="318" t="s">
         <v>295</v>
       </c>
-      <c r="C25" s="335">
+      <c r="C25" s="330">
         <f>'Noname co'!G50/'Noname co'!G51</f>
         <v>0.43674941294867492</v>
       </c>
-      <c r="D25" s="335">
+      <c r="D25" s="330">
         <f>BS!D18/BS!D21</f>
         <v>0.4132446606278477</v>
       </c>
-      <c r="E25" s="335">
+      <c r="E25" s="330">
         <f>BS!E18/BS!E21</f>
         <v>0.40798415775940955</v>
       </c>
-      <c r="F25" s="335">
+      <c r="F25" s="330">
         <f>BS!F18/BS!F21</f>
         <v>0.40027699767132452</v>
       </c>
-      <c r="G25" s="335">
+      <c r="G25" s="330">
         <f>BS!G18/BS!G21</f>
         <v>0.39151214660653616</v>
       </c>
-      <c r="I25" s="336"/>
-    </row>
-    <row r="26" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="332" t="s">
+      <c r="I25" s="331"/>
+    </row>
+    <row r="26" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="327" t="s">
         <v>279</v>
       </c>
-      <c r="C26" s="338">
+      <c r="C26" s="333">
         <f>SUM('Noname co'!G58,'Noname co'!G60,'Noname co'!G64)/'Noname co'!G51</f>
         <v>0.62348205300234816</v>
       </c>
-      <c r="D26" s="338">
+      <c r="D26" s="333">
         <f>SUM(BS!D27,BS!D29,BS!D33)/BS!D21</f>
         <v>0.60649411960606414</v>
       </c>
-      <c r="E26" s="338">
+      <c r="E26" s="333">
         <f>SUM(BS!E27,BS!E29,BS!E33)/BS!E21</f>
         <v>0.59877359866568158</v>
       </c>
-      <c r="F26" s="338">
+      <c r="F26" s="333">
         <f>SUM(BS!F27,BS!F29,BS!F33)/BS!F21</f>
         <v>0.58746226734639884</v>
       </c>
-      <c r="G26" s="338">
+      <c r="G26" s="333">
         <f>SUM(BS!G27,BS!G29,BS!G33)/BS!G21</f>
         <v>0.57459862714366594</v>
       </c>
     </row>
-    <row r="27" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="332" t="s">
+    <row r="27" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="327" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="339">
+      <c r="C27" s="334">
         <f>BS!C40/BS!C38</f>
         <v>3.466639144566614</v>
       </c>
-      <c r="D27" s="339">
+      <c r="D27" s="334">
         <f>BS!D40/BS!D38</f>
         <v>3.3396591075966766</v>
       </c>
-      <c r="E27" s="339">
+      <c r="E27" s="334">
         <f>BS!E40/BS!E38</f>
         <v>3.2075912510491511</v>
       </c>
-      <c r="F27" s="339">
+      <c r="F27" s="334">
         <f>BS!F40/BS!F38</f>
         <v>3.0791795047546304</v>
       </c>
-      <c r="G27" s="339">
+      <c r="G27" s="334">
         <f>BS!G40/BS!G38</f>
         <v>2.9450960013984218</v>
       </c>
     </row>
-    <row r="28" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B35" s="325" t="s">
+    <row r="28" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="320" t="s">
         <v>296</v>
       </c>
-      <c r="C35" s="326" t="str">
+      <c r="C35" s="321" t="str">
         <f>C20</f>
         <v>FY11</v>
       </c>
-      <c r="D35" s="326" t="str">
+      <c r="D35" s="321" t="str">
         <f>D20</f>
         <v>FY12</v>
       </c>
-      <c r="E35" s="326" t="str">
+      <c r="E35" s="321" t="str">
         <f>E20</f>
         <v>FY13</v>
       </c>
-      <c r="F35" s="326" t="str">
+      <c r="F35" s="321" t="str">
         <f>F20</f>
         <v>FY14</v>
       </c>
-      <c r="G35" s="326" t="str">
+      <c r="G35" s="321" t="str">
         <f>G20</f>
         <v>FY15</v>
       </c>
-      <c r="H35" s="340"/>
-      <c r="I35" s="327"/>
-    </row>
-    <row r="36" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="323" t="s">
+      <c r="H35" s="335"/>
+      <c r="I35" s="322"/>
+    </row>
+    <row r="36" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="318" t="s">
         <v>297</v>
       </c>
-      <c r="C36" s="329">
+      <c r="C36" s="324">
         <f>SUM('Noname co'!G64,'Noname co'!G69)-'Noname co'!G50</f>
         <v>4.6922049999999995</v>
       </c>
-      <c r="D36" s="329">
+      <c r="D36" s="324">
         <f>SUM(BS!D38,BS!D33)-BS!D18</f>
         <v>5.4890720650088127</v>
       </c>
-      <c r="E36" s="329">
+      <c r="E36" s="324">
         <f>SUM(BS!E38,BS!E33)-BS!E18</f>
         <v>6.6322267403552644</v>
       </c>
-      <c r="F36" s="329">
+      <c r="F36" s="324">
         <f>SUM(BS!F38,BS!F33)-BS!F18</f>
         <v>7.9306022716445561</v>
       </c>
-      <c r="G36" s="329">
+      <c r="G36" s="324">
         <f>SUM(BS!G38,BS!G33)-BS!G18</f>
         <v>9.3791370418197282</v>
       </c>
     </row>
-    <row r="37" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="323" t="s">
+    <row r="37" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="318" t="s">
         <v>298</v>
       </c>
-      <c r="C37" s="329">
+      <c r="C37" s="324">
         <f>'Noname co'!G46-'Noname co'!G62</f>
         <v>4.6921000000000017</v>
       </c>
-      <c r="D37" s="329">
+      <c r="D37" s="324">
         <f>BS!D12-BS!D31</f>
         <v>5.4890720650088127</v>
       </c>
-      <c r="E37" s="329">
+      <c r="E37" s="324">
         <f>BS!E12-BS!E31</f>
         <v>6.6322267403552626</v>
       </c>
-      <c r="F37" s="329">
+      <c r="F37" s="324">
         <f>BS!F12-BS!F31</f>
         <v>7.9306022716445543</v>
       </c>
-      <c r="G37" s="329">
+      <c r="G37" s="324">
         <f>BS!G12-BS!G31</f>
         <v>9.3791370418197282</v>
       </c>
     </row>
-    <row r="38" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="323" t="s">
+    <row r="38" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="318" t="s">
         <v>299</v>
       </c>
-      <c r="C38" s="335">
+      <c r="C38" s="330">
         <f>('Noname co'!G43+'Noname co'!G44-'Noname co'!G59)/('Noname co'!G58+'Noname co'!G60)</f>
         <v>1.6485762144053604</v>
       </c>
-      <c r="D38" s="341">
+      <c r="D38" s="336">
         <f>SUM(BS!D9,BS!D10,-BS!D28)/SUM(BS!D27,BS!D29)</f>
         <v>1.6852199924359514</v>
       </c>
-      <c r="E38" s="341">
+      <c r="E38" s="336">
         <f>SUM(BS!E9,BS!E10,-BS!E28)/SUM(BS!E27,BS!E29)</f>
         <v>1.6577359586102363</v>
       </c>
-      <c r="F38" s="341">
+      <c r="F38" s="336">
         <f>SUM(BS!F9,BS!F10,-BS!F28)/SUM(BS!F27,BS!F29)</f>
         <v>1.6577359586102363</v>
       </c>
-      <c r="G38" s="341">
+      <c r="G38" s="336">
         <f>SUM(BS!G9,BS!G10,-BS!G28)/SUM(BS!G27,BS!G29)</f>
         <v>1.657735958610236</v>
       </c>
-      <c r="H38" s="335"/>
-      <c r="I38" s="335"/>
-    </row>
-    <row r="39" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="323" t="s">
+      <c r="H38" s="330"/>
+      <c r="I38" s="330"/>
+    </row>
+    <row r="39" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="318" t="s">
         <v>300</v>
       </c>
-      <c r="C39" s="331">
+      <c r="C39" s="326">
         <f>'Noname co'!G46/('Noname co'!G58+'Noname co'!G60)</f>
         <v>2.24998324958124</v>
       </c>
-      <c r="D39" s="329">
+      <c r="D39" s="324">
         <f>BS!D12/SUM(BS!D27,BS!D29)</f>
         <v>2.2864293160888498</v>
       </c>
-      <c r="E39" s="329">
+      <c r="E39" s="324">
         <f>BS!E12/SUM(BS!E27,BS!E29)</f>
         <v>2.3366733721867381</v>
       </c>
-      <c r="F39" s="329">
+      <c r="F39" s="324">
         <f>BS!F12/SUM(BS!F27,BS!F29)</f>
         <v>2.4126707184205154</v>
       </c>
-      <c r="G39" s="329">
+      <c r="G39" s="324">
         <f>BS!G12/SUM(BS!G27,BS!G29)</f>
         <v>2.5027337677709278</v>
       </c>
-      <c r="H39" s="331"/>
-      <c r="I39" s="331"/>
-    </row>
-    <row r="40" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B50" s="325" t="s">
+      <c r="H39" s="326"/>
+      <c r="I39" s="326"/>
+    </row>
+    <row r="40" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B50" s="320" t="s">
         <v>301</v>
       </c>
-      <c r="C50" s="326" t="str">
+      <c r="C50" s="321" t="str">
         <f>C35</f>
         <v>FY11</v>
       </c>
-      <c r="D50" s="326" t="str">
+      <c r="D50" s="321" t="str">
         <f t="shared" ref="D50:F50" si="4">D35</f>
         <v>FY12</v>
       </c>
-      <c r="E50" s="326" t="str">
+      <c r="E50" s="321" t="str">
         <f t="shared" si="4"/>
         <v>FY13</v>
       </c>
-      <c r="F50" s="326" t="str">
+      <c r="F50" s="321" t="str">
         <f t="shared" si="4"/>
         <v>FY14</v>
       </c>
-      <c r="G50" s="326" t="str">
+      <c r="G50" s="321" t="str">
         <f>G35</f>
         <v>FY15</v>
       </c>
-      <c r="H50" s="328"/>
-      <c r="I50" s="328"/>
-    </row>
-    <row r="51" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="323" t="s">
+      <c r="H50" s="323"/>
+      <c r="I50" s="323"/>
+    </row>
+    <row r="51" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="318" t="s">
         <v>302</v>
       </c>
-      <c r="C51" s="341">
+      <c r="C51" s="336">
         <f>'Noname co'!G20/'Noname co'!G8</f>
         <v>2.933036817395587E-2</v>
       </c>
-      <c r="D51" s="335">
+      <c r="D51" s="330">
         <f>PL!D19/PL!D6</f>
         <v>2.8956627568471224E-2</v>
       </c>
-      <c r="E51" s="335">
+      <c r="E51" s="330">
         <f>PL!E19/PL!E6</f>
         <v>3.6256627568471249E-2</v>
       </c>
-      <c r="F51" s="335">
+      <c r="F51" s="330">
         <f>PL!F19/PL!F6</f>
         <v>3.6256627568471339E-2</v>
       </c>
-      <c r="G51" s="335">
+      <c r="G51" s="330">
         <f>PL!G19/PL!G6</f>
         <v>3.6256627568471235E-2</v>
       </c>
-      <c r="H51" s="336"/>
-      <c r="I51" s="336"/>
-    </row>
-    <row r="52" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="323" t="s">
+      <c r="H51" s="331"/>
+      <c r="I51" s="331"/>
+    </row>
+    <row r="52" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="318" t="s">
         <v>303</v>
       </c>
-      <c r="C52" s="341">
+      <c r="C52" s="336">
         <f>'Noname co'!G20/'Noname co'!G51</f>
         <v>3.9818852733981683E-2</v>
       </c>
-      <c r="D52" s="335">
+      <c r="D52" s="330">
         <f>PL!D19/BS!D21</f>
         <v>4.0568900897432432E-2</v>
       </c>
-      <c r="E52" s="335">
+      <c r="E52" s="330">
         <f>PL!E19/BS!E21</f>
         <v>5.0149743437193715E-2</v>
       </c>
-      <c r="F52" s="335">
+      <c r="F52" s="330">
         <f>PL!F19/BS!F21</f>
         <v>4.9202373070732761E-2</v>
       </c>
-      <c r="G52" s="335">
+      <c r="G52" s="330">
         <f>PL!G19/BS!G21</f>
         <v>4.8124990471912307E-2</v>
       </c>
-      <c r="H52" s="336"/>
-      <c r="I52" s="336"/>
-    </row>
-    <row r="53" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="323" t="s">
+      <c r="H52" s="331"/>
+      <c r="I52" s="331"/>
+    </row>
+    <row r="53" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="318" t="s">
         <v>304</v>
       </c>
-      <c r="C53" s="342">
+      <c r="C53" s="337">
         <f>'Noname co'!G20/'Noname co'!G69</f>
         <v>0.13803689899583027</v>
       </c>
-      <c r="D53" s="342">
+      <c r="D53" s="337">
         <f>PL!D21/BS!D38</f>
         <v>0.1354862993672972</v>
       </c>
-      <c r="E53" s="342">
+      <c r="E53" s="337">
         <f>PL!E21/BS!E38</f>
         <v>0.16085987829150214</v>
       </c>
-      <c r="F53" s="342">
+      <c r="F53" s="337">
         <f>PL!F21/BS!F38</f>
         <v>0.15150293874469145</v>
       </c>
-      <c r="G53" s="342">
+      <c r="G53" s="337">
         <f>PL!G21/BS!G38</f>
         <v>0.14173271700616608</v>
       </c>
     </row>
-    <row r="54" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="335"/>
-      <c r="D54" s="335"/>
-      <c r="E54" s="335"/>
-      <c r="F54" s="335"/>
-      <c r="G54" s="335"/>
-      <c r="H54" s="335"/>
-      <c r="I54" s="335"/>
-    </row>
-    <row r="55" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C62" s="343"/>
-      <c r="D62" s="343"/>
-      <c r="E62" s="343"/>
+    <row r="54" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="330"/>
+      <c r="D54" s="330"/>
+      <c r="E54" s="330"/>
+      <c r="F54" s="330"/>
+      <c r="G54" s="330"/>
+      <c r="H54" s="330"/>
+      <c r="I54" s="330"/>
+    </row>
+    <row r="55" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C62" s="338"/>
+      <c r="D62" s="338"/>
+      <c r="E62" s="338"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ejt7O2GBAIkGIGUlldXIaML/c1lGi478szbJDIRzvTvK4k2sEHCWgbTrclNnFKT1vzD7mzWm6S+527V945QH5g==" saltValue="hsfrIz9j6RTMSDD3J7cCmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="K5:K6"/>
   </mergeCells>

--- a/NoNameCo FPA & valuation.xlsx
+++ b/NoNameCo FPA & valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{C771E1D4-6772-E24B-BD26-D69582F8B010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC312C8-CBB8-5442-974F-E67306F5E031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here" sheetId="25" r:id="rId1"/>
@@ -2911,36 +2911,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="33" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2990,9 +2960,6 @@
     <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="19" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="29" fillId="19" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="29" fillId="19" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3000,6 +2967,39 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="29" fillId="19" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -8330,7 +8330,7 @@
       <c r="C30" s="305"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="upR6tBTQXkllPIx57gKpexkhUlVTJUa9ECq5xTXm4R55l0HLnDx77aZeN3DT69IRK+6SoEwrkduV/rIPNj05xg==" saltValue="CJpe7CaF5be7C6fHfri6bA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8342,7 +8342,7 @@
   </sheetPr>
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" zoomScale="106" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A51" zoomScale="106" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
@@ -13418,7 +13418,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vG9q9qRkUSbTk1j5jshnswe9YWe0xP9ef16/Iy9iZmoWJ69iuarPgPt6SeMfqUHbLesPW031F1VpmANuKpgpIQ==" saltValue="aWppZ/fKH9bgaU8qGwJqrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15197,7 +15197,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lM7Yr4kOhCJoQjcjoUYYkJj+/Yh0hKmMQmWMVhMyQ4yK1haJCHoLxnmj1n9ju9vPUMsUKlJz/Da6e4Ureyo5LA==" saltValue="dqD4GHwCaYreZJ+g9Q1lKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15230,11 +15230,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="308" t="str">
+      <c r="B1" s="347" t="str">
         <f>Input!B2</f>
         <v>Noname co, by elie diwambuena</v>
       </c>
-      <c r="C1" s="308"/>
+      <c r="C1" s="347"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.15">
       <c r="B2" s="107"/>
@@ -17349,7 +17349,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x30IMV2qagB802u4Qrz9GqR1T3VOnKuK4pD3TF8rZy3AwiJvjJtl6gJ8/TY+wma3OpZh22+likCvbJ/M2KrgVQ==" saltValue="VrQfcG7upvRSr/+HX79MoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
@@ -17367,7 +17367,7 @@
   </sheetPr>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
@@ -18047,9 +18047,9 @@
         <f>Calcul!D121</f>
         <v>7.567439903697612E-2</v>
       </c>
-      <c r="E53" s="311"/>
-      <c r="F53" s="312"/>
-      <c r="G53" s="313"/>
+      <c r="E53" s="350"/>
+      <c r="F53" s="351"/>
+      <c r="G53" s="352"/>
       <c r="H53" s="51"/>
       <c r="I53" s="1"/>
       <c r="J53" s="51"/>
@@ -18166,10 +18166,10 @@
         <f>SUM(D57:G57)</f>
         <v>0.83305353457447939</v>
       </c>
-      <c r="D58" s="311"/>
-      <c r="E58" s="312"/>
-      <c r="F58" s="312"/>
-      <c r="G58" s="313"/>
+      <c r="D58" s="350"/>
+      <c r="E58" s="351"/>
+      <c r="F58" s="351"/>
+      <c r="G58" s="352"/>
       <c r="H58" s="51"/>
       <c r="I58" s="2"/>
       <c r="J58" s="51"/>
@@ -18183,12 +18183,12 @@
         <f>IRR(D49:G49)</f>
         <v>0.24954953354154941</v>
       </c>
-      <c r="D59" s="314" t="s">
+      <c r="D59" s="353" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="315"/>
-      <c r="F59" s="315"/>
-      <c r="G59" s="316"/>
+      <c r="E59" s="354"/>
+      <c r="F59" s="354"/>
+      <c r="G59" s="355"/>
       <c r="H59" s="51"/>
       <c r="I59" s="2"/>
       <c r="J59" s="51"/>
@@ -19916,9 +19916,9 @@
         <v>7.1945421151312514E-2</v>
       </c>
       <c r="D154" s="8"/>
-      <c r="E154" s="309"/>
-      <c r="F154" s="309"/>
-      <c r="G154" s="309"/>
+      <c r="E154" s="348"/>
+      <c r="F154" s="348"/>
+      <c r="G154" s="348"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B155" s="3" t="s">
@@ -19980,10 +19980,10 @@
       <c r="B158" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C158" s="311"/>
-      <c r="D158" s="312"/>
-      <c r="E158" s="312"/>
-      <c r="F158" s="313"/>
+      <c r="C158" s="350"/>
+      <c r="D158" s="351"/>
+      <c r="E158" s="351"/>
+      <c r="F158" s="352"/>
       <c r="G158" s="153">
         <f>G153*(1+C155)/(C154-C155)</f>
         <v>7.9469762786676528</v>
@@ -20019,10 +20019,10 @@
         <f>SUM(D159:G159)</f>
         <v>6.8068176525090802</v>
       </c>
-      <c r="D160" s="309"/>
-      <c r="E160" s="309"/>
-      <c r="F160" s="309"/>
-      <c r="G160" s="309"/>
+      <c r="D160" s="348"/>
+      <c r="E160" s="348"/>
+      <c r="F160" s="348"/>
+      <c r="G160" s="348"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="3" t="s">
@@ -20045,13 +20045,13 @@
         <f>C160-C161</f>
         <v>6.4911176525090806</v>
       </c>
-      <c r="D162" s="310" t="str">
+      <c r="D162" s="349" t="str">
         <f>"Greater than "  &amp;Input!C85</f>
         <v>Greater than 1.32825</v>
       </c>
-      <c r="E162" s="310"/>
-      <c r="F162" s="310"/>
-      <c r="G162" s="310"/>
+      <c r="E162" s="349"/>
+      <c r="F162" s="349"/>
+      <c r="G162" s="349"/>
     </row>
     <row r="165" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B165" s="6" t="s">
@@ -20198,7 +20198,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fEd6ELhUQc8EDZx/wC7SXjjNXaWfZKcLmnKq3WaZDJ0ICLiD5Ceab2jQ5mNgZRwaD5ef5tQ5sQAqTsJerwr5VA==" saltValue="q2CCexzk35bzSLNtATwMJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="D160:G160"/>
     <mergeCell ref="D162:G162"/>
@@ -20642,7 +20642,7 @@
       <c r="E29" s="196"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dMmeMyou+/JrAtc2t/l4XQYR1o9173IhsBudDr2TqRcJXtgByll/A5JVJseYA1bZhRS64ZwW8Qp6+ME6uaTqeQ==" saltValue="g9J9+jmqZ0jITSupsSWsIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20675,15 +20675,15 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="16" x14ac:dyDescent="0.15">
-      <c r="B3" s="317" t="s">
+      <c r="B3" s="356" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
-      <c r="G3" s="317"/>
-      <c r="H3" s="317"/>
+      <c r="C3" s="356"/>
+      <c r="D3" s="356"/>
+      <c r="E3" s="356"/>
+      <c r="F3" s="356"/>
+      <c r="G3" s="356"/>
+      <c r="H3" s="356"/>
       <c r="I3" s="198"/>
       <c r="J3" s="198"/>
       <c r="K3" s="198"/>
@@ -21384,7 +21384,7 @@
     <row r="42" spans="2:11" ht="16" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:11" ht="16" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lEpnE+ygxNkNa1LAa1LihC9RsAa5NqCwt3gTetmcafsabRoAgjM6UbKE89uKc2F9ASFLln+HCTw5IQqlc9EWkQ==" saltValue="Xr0/8nFHslXXpB9jWWSfFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="B3:H3"/>
   </mergeCells>
@@ -22560,7 +22560,7 @@
       <c r="E56" s="60"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="twSgEJkRDQu5DznLvD8dNcex5bZkw3R7TnURtsOR9sIBzcmm+OPsmQG0GgL2FNUK4clTwPrpnneL0/XROXOwHQ==" saltValue="3thXA/tNtVvGc2h/f8DdpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -22573,471 +22573,471 @@
   </sheetPr>
   <dimension ref="B1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="318"/>
-    <col min="2" max="2" width="61" style="318" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="318" customWidth="1"/>
-    <col min="4" max="5" width="14.25" style="318" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="318" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="318" customWidth="1"/>
-    <col min="8" max="8" width="26.25" style="318" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="318" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="318" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="318" customWidth="1"/>
-    <col min="12" max="16384" width="10.75" style="318"/>
+    <col min="1" max="1" width="10.75" style="308"/>
+    <col min="2" max="2" width="61" style="308" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="308" customWidth="1"/>
+    <col min="4" max="5" width="14.25" style="308" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="308" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="308" customWidth="1"/>
+    <col min="8" max="8" width="26.25" style="308" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="308" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="308" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="308" customWidth="1"/>
+    <col min="12" max="16384" width="10.75" style="308"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="339" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:11" s="339" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="340" t="str">
+    <row r="1" spans="2:11" s="329" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:11" s="329" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="330" t="str">
         <f>Input!B2</f>
         <v>Noname co, by elie diwambuena</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="339" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:11" s="339" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="340" t="s">
+    <row r="3" spans="2:11" s="329" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:11" s="329" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="330" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="341">
+      <c r="C4" s="331">
         <v>0</v>
       </c>
-      <c r="G4" s="342" t="s">
+      <c r="G4" s="332" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="343" t="str">
+      <c r="H4" s="333" t="str">
         <f>C20</f>
         <v>FY11</v>
       </c>
-      <c r="I4" s="344" t="str">
+      <c r="I4" s="334" t="str">
         <f>D20</f>
         <v>FY12</v>
       </c>
     </row>
-    <row r="5" spans="2:11" s="339" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="345" t="s">
+    <row r="5" spans="2:11" s="329" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="335" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="346">
+      <c r="C5" s="336">
         <v>0</v>
       </c>
-      <c r="D5" s="347"/>
-      <c r="G5" s="348" t="s">
+      <c r="D5" s="337"/>
+      <c r="G5" s="338" t="s">
         <v>279</v>
       </c>
-      <c r="H5" s="349">
+      <c r="H5" s="339">
         <f>C26</f>
         <v>0.62348205300234816</v>
       </c>
-      <c r="I5" s="350">
+      <c r="I5" s="340">
         <f>D26</f>
         <v>0.60649411960606414</v>
       </c>
-      <c r="J5" s="351" t="s">
+      <c r="J5" s="341" t="s">
         <v>280</v>
       </c>
-      <c r="K5" s="352" t="s">
+      <c r="K5" s="357" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="339" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="345" t="s">
+    <row r="6" spans="2:11" s="329" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="335" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="346">
+      <c r="C6" s="336">
         <v>1</v>
       </c>
-      <c r="G6" s="353" t="s">
+      <c r="G6" s="342" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="354">
+      <c r="H6" s="343">
         <f>C27</f>
         <v>3.466639144566614</v>
       </c>
-      <c r="I6" s="355">
+      <c r="I6" s="344">
         <f>D27</f>
         <v>3.3396591075966766</v>
       </c>
-      <c r="J6" s="356" t="s">
+      <c r="J6" s="345" t="s">
         <v>283</v>
       </c>
-      <c r="K6" s="352"/>
-    </row>
-    <row r="7" spans="2:11" s="339" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="345" t="s">
+      <c r="K6" s="357"/>
+    </row>
+    <row r="7" spans="2:11" s="329" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="335" t="s">
         <v>366</v>
       </c>
-      <c r="C7" s="346">
+      <c r="C7" s="336">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="339" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="345" t="s">
+    <row r="8" spans="2:11" s="329" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="335" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="346">
+      <c r="C8" s="336">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="339" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G9" s="357"/>
+    <row r="9" spans="2:11" s="329" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="346"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G10" s="319"/>
+      <c r="G10" s="309"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="320" t="s">
+      <c r="B11" s="310" t="s">
         <v>285</v>
       </c>
-      <c r="C11" s="321" t="str">
+      <c r="C11" s="311" t="str">
         <f>Input!C7</f>
         <v>FY11</v>
       </c>
-      <c r="D11" s="321" t="str">
+      <c r="D11" s="311" t="str">
         <f>Input!D7</f>
         <v>FY12</v>
       </c>
-      <c r="E11" s="321" t="str">
+      <c r="E11" s="311" t="str">
         <f>Input!E7</f>
         <v>FY13</v>
       </c>
-      <c r="F11" s="321" t="str">
+      <c r="F11" s="311" t="str">
         <f>Input!F7</f>
         <v>FY14</v>
       </c>
-      <c r="G11" s="321" t="str">
+      <c r="G11" s="311" t="str">
         <f>Input!G7</f>
         <v>FY15</v>
       </c>
-      <c r="H11" s="322"/>
-      <c r="I11" s="323"/>
-      <c r="J11" s="323"/>
+      <c r="H11" s="312"/>
+      <c r="I11" s="313"/>
+      <c r="J11" s="313"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="318" t="s">
+      <c r="B12" s="308" t="s">
         <v>286</v>
       </c>
-      <c r="D12" s="324">
+      <c r="D12" s="314">
         <f>SUM(CF!D13,CF!D16)</f>
         <v>-0.16776563634247382</v>
       </c>
-      <c r="E12" s="324">
+      <c r="E12" s="314">
         <f>SUM(CF!E13,CF!E16)</f>
         <v>-9.5053841557396712E-2</v>
       </c>
-      <c r="F12" s="324">
+      <c r="F12" s="314">
         <f>SUM(CF!F13,CF!F16)</f>
         <v>9.9590782921014309E-2</v>
       </c>
-      <c r="G12" s="324">
+      <c r="G12" s="314">
         <f>SUM(CF!G13,CF!G16)</f>
         <v>0.54603211221909831</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="308" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="319">
+      <c r="C13" s="309">
         <f>Calcul!D121</f>
         <v>7.567439903697612E-2</v>
       </c>
-      <c r="D13" s="324"/>
-      <c r="E13" s="324"/>
-      <c r="F13" s="324"/>
-      <c r="G13" s="324"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="314"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B14" s="318" t="s">
+      <c r="B14" s="308" t="s">
         <v>287</v>
       </c>
-      <c r="D14" s="324">
+      <c r="D14" s="314">
         <f>0.5</f>
         <v>0.5</v>
       </c>
-      <c r="E14" s="324">
+      <c r="E14" s="314">
         <f>D14+1</f>
         <v>1.5</v>
       </c>
-      <c r="F14" s="324">
+      <c r="F14" s="314">
         <f t="shared" ref="F14:G14" si="0">E14+1</f>
         <v>2.5</v>
       </c>
-      <c r="G14" s="324">
+      <c r="G14" s="314">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="318" t="s">
+      <c r="B15" s="308" t="s">
         <v>288</v>
       </c>
-      <c r="D15" s="324">
+      <c r="D15" s="314">
         <f>1/(1+$C$13)^D14</f>
         <v>0.9641832525702988</v>
       </c>
-      <c r="E15" s="324">
+      <c r="E15" s="314">
         <f t="shared" ref="E15:G15" si="1">1/(1+$C$13)^E14</f>
         <v>0.89635232876557025</v>
       </c>
-      <c r="F15" s="324">
+      <c r="F15" s="314">
         <f t="shared" si="1"/>
         <v>0.8332933549111623</v>
       </c>
-      <c r="G15" s="324">
+      <c r="G15" s="314">
         <f t="shared" si="1"/>
         <v>0.77467062120023367</v>
       </c>
-      <c r="H15" s="325"/>
-      <c r="I15" s="325"/>
-      <c r="J15" s="325"/>
+      <c r="H15" s="315"/>
+      <c r="I15" s="315"/>
+      <c r="J15" s="315"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="318" t="s">
+      <c r="B16" s="308" t="s">
         <v>289</v>
       </c>
-      <c r="D16" s="324">
+      <c r="D16" s="314">
         <f>D15*D12</f>
         <v>-0.16175681691821234</v>
       </c>
-      <c r="E16" s="324">
+      <c r="E16" s="314">
         <f t="shared" ref="E16:G16" si="2">E15*E12</f>
         <v>-8.5201732238086081E-2</v>
       </c>
-      <c r="F16" s="324">
+      <c r="F16" s="314">
         <f t="shared" si="2"/>
         <v>8.2988337618481303E-2</v>
       </c>
-      <c r="G16" s="324">
+      <c r="G16" s="314">
         <f t="shared" si="2"/>
         <v>0.42299503556804458</v>
       </c>
-      <c r="H16" s="326"/>
-      <c r="I16" s="326"/>
-      <c r="J16" s="326"/>
+      <c r="H16" s="316"/>
+      <c r="I16" s="316"/>
+      <c r="J16" s="316"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="327" t="s">
+      <c r="B17" s="317" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="328">
+      <c r="C17" s="318">
         <f>SUM(D16:G16)</f>
         <v>0.25902482403022747</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="320" t="s">
+      <c r="B20" s="310" t="s">
         <v>290</v>
       </c>
-      <c r="C20" s="321" t="str">
+      <c r="C20" s="311" t="str">
         <f>C11</f>
         <v>FY11</v>
       </c>
-      <c r="D20" s="321" t="str">
+      <c r="D20" s="311" t="str">
         <f t="shared" ref="D20:G20" si="3">D11</f>
         <v>FY12</v>
       </c>
-      <c r="E20" s="321" t="str">
+      <c r="E20" s="311" t="str">
         <f t="shared" si="3"/>
         <v>FY13</v>
       </c>
-      <c r="F20" s="321" t="str">
+      <c r="F20" s="311" t="str">
         <f t="shared" si="3"/>
         <v>FY14</v>
       </c>
-      <c r="G20" s="321" t="str">
+      <c r="G20" s="311" t="str">
         <f t="shared" si="3"/>
         <v>FY15</v>
       </c>
-      <c r="H20" s="323"/>
-      <c r="I20" s="323"/>
+      <c r="H20" s="313"/>
+      <c r="I20" s="313"/>
     </row>
     <row r="21" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="318" t="s">
+      <c r="B21" s="308" t="s">
         <v>291</v>
       </c>
-      <c r="C21" s="329">
+      <c r="C21" s="319">
         <f>BS!C38/BS!C21</f>
         <v>0.28846528010734651</v>
       </c>
-      <c r="D21" s="329">
+      <c r="D21" s="319">
         <f>BS!D38/BS!D21</f>
         <v>0.2994317586861826</v>
       </c>
-      <c r="E21" s="329">
+      <c r="E21" s="319">
         <f>BS!E38/BS!E21</f>
         <v>0.31176042136694204</v>
       </c>
-      <c r="F21" s="329">
+      <c r="F21" s="319">
         <f>BS!F38/BS!F21</f>
         <v>0.3247618394627132</v>
       </c>
-      <c r="G21" s="329">
+      <c r="G21" s="319">
         <f>BS!G38/BS!G21</f>
         <v>0.33954750525115968</v>
       </c>
-      <c r="H21" s="329"/>
-      <c r="I21" s="329"/>
+      <c r="H21" s="319"/>
+      <c r="I21" s="319"/>
     </row>
     <row r="22" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="318" t="s">
+      <c r="B22" s="308" t="s">
         <v>292</v>
       </c>
-      <c r="C22" s="330">
+      <c r="C22" s="320">
         <f>BS!C38/BS!C34</f>
         <v>0.40540992881052285</v>
       </c>
-      <c r="D22" s="330">
+      <c r="D22" s="320">
         <f>BS!D38/BS!D34</f>
         <v>0.42741269305134411</v>
       </c>
-      <c r="E22" s="330">
+      <c r="E22" s="320">
         <f>BS!E38/BS!E34</f>
         <v>0.45298240764668418</v>
       </c>
-      <c r="F22" s="330">
+      <c r="F22" s="320">
         <f>BS!F38/BS!F34</f>
         <v>0.48095895410339412</v>
       </c>
-      <c r="G22" s="330">
+      <c r="G22" s="320">
         <f>BS!G38/BS!G34</f>
         <v>0.51411344184608498</v>
       </c>
-      <c r="H22" s="331"/>
-      <c r="I22" s="331"/>
+      <c r="H22" s="321"/>
+      <c r="I22" s="321"/>
     </row>
     <row r="23" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="318" t="s">
+      <c r="B23" s="308" t="s">
         <v>293</v>
       </c>
-      <c r="C23" s="330">
+      <c r="C23" s="320">
         <f>'Noname co'!G14/'Noname co'!G64</f>
         <v>0.27284577695869056</v>
       </c>
-      <c r="D23" s="330">
+      <c r="D23" s="320">
         <f>PL!D13/BS!D33</f>
         <v>0.29632725291408707</v>
       </c>
-      <c r="E23" s="330">
+      <c r="E23" s="320">
         <f>PL!E13/BS!E33</f>
         <v>0.33637147628085584</v>
       </c>
-      <c r="F23" s="330">
+      <c r="F23" s="320">
         <f>PL!F13/BS!F33</f>
         <v>0.33637147628085623</v>
       </c>
-      <c r="G23" s="330">
+      <c r="G23" s="320">
         <f>PL!G13/BS!G33</f>
         <v>0.33637147628085573</v>
       </c>
-      <c r="H23" s="332"/>
-      <c r="I23" s="332"/>
+      <c r="H23" s="322"/>
+      <c r="I23" s="322"/>
     </row>
     <row r="24" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="318" t="s">
+      <c r="B24" s="308" t="s">
         <v>294</v>
       </c>
-      <c r="C24" s="330">
+      <c r="C24" s="320">
         <f>'Noname co'!G14/SUM('Noname co'!G58,'Noname co'!G60)</f>
         <v>0.4067001675041868</v>
       </c>
-      <c r="D24" s="330">
+      <c r="D24" s="320">
         <f>PL!D13/SUM(BS!D29,BS!D27)</f>
         <v>0.40399660061636467</v>
       </c>
-      <c r="E24" s="330">
+      <c r="E24" s="320">
         <f>PL!E13/SUM(BS!E29,BS!E27)</f>
         <v>0.45859073583479248</v>
       </c>
-      <c r="F24" s="330">
+      <c r="F24" s="320">
         <f>PL!F13/SUM(BS!F29,BS!F27)</f>
         <v>0.45859073583479321</v>
       </c>
-      <c r="G24" s="330">
+      <c r="G24" s="320">
         <f>PL!G13/SUM(BS!G29,BS!G27)</f>
         <v>0.45859073583479237</v>
       </c>
-      <c r="H24" s="331"/>
-      <c r="I24" s="331"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
     </row>
     <row r="25" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="318" t="s">
+      <c r="B25" s="308" t="s">
         <v>295</v>
       </c>
-      <c r="C25" s="330">
+      <c r="C25" s="320">
         <f>'Noname co'!G50/'Noname co'!G51</f>
         <v>0.43674941294867492</v>
       </c>
-      <c r="D25" s="330">
+      <c r="D25" s="320">
         <f>BS!D18/BS!D21</f>
         <v>0.4132446606278477</v>
       </c>
-      <c r="E25" s="330">
+      <c r="E25" s="320">
         <f>BS!E18/BS!E21</f>
         <v>0.40798415775940955</v>
       </c>
-      <c r="F25" s="330">
+      <c r="F25" s="320">
         <f>BS!F18/BS!F21</f>
         <v>0.40027699767132452</v>
       </c>
-      <c r="G25" s="330">
+      <c r="G25" s="320">
         <f>BS!G18/BS!G21</f>
         <v>0.39151214660653616</v>
       </c>
-      <c r="I25" s="331"/>
+      <c r="I25" s="321"/>
     </row>
     <row r="26" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="327" t="s">
+      <c r="B26" s="317" t="s">
         <v>279</v>
       </c>
-      <c r="C26" s="333">
+      <c r="C26" s="323">
         <f>SUM('Noname co'!G58,'Noname co'!G60,'Noname co'!G64)/'Noname co'!G51</f>
         <v>0.62348205300234816</v>
       </c>
-      <c r="D26" s="333">
+      <c r="D26" s="323">
         <f>SUM(BS!D27,BS!D29,BS!D33)/BS!D21</f>
         <v>0.60649411960606414</v>
       </c>
-      <c r="E26" s="333">
+      <c r="E26" s="323">
         <f>SUM(BS!E27,BS!E29,BS!E33)/BS!E21</f>
         <v>0.59877359866568158</v>
       </c>
-      <c r="F26" s="333">
+      <c r="F26" s="323">
         <f>SUM(BS!F27,BS!F29,BS!F33)/BS!F21</f>
         <v>0.58746226734639884</v>
       </c>
-      <c r="G26" s="333">
+      <c r="G26" s="323">
         <f>SUM(BS!G27,BS!G29,BS!G33)/BS!G21</f>
         <v>0.57459862714366594</v>
       </c>
     </row>
     <row r="27" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="327" t="s">
+      <c r="B27" s="317" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="334">
+      <c r="C27" s="324">
         <f>BS!C40/BS!C38</f>
         <v>3.466639144566614</v>
       </c>
-      <c r="D27" s="334">
+      <c r="D27" s="324">
         <f>BS!D40/BS!D38</f>
         <v>3.3396591075966766</v>
       </c>
-      <c r="E27" s="334">
+      <c r="E27" s="324">
         <f>BS!E40/BS!E38</f>
         <v>3.2075912510491511</v>
       </c>
-      <c r="F27" s="334">
+      <c r="F27" s="324">
         <f>BS!F40/BS!F38</f>
         <v>3.0791795047546304</v>
       </c>
-      <c r="G27" s="334">
+      <c r="G27" s="324">
         <f>BS!G40/BS!G38</f>
         <v>2.9450960013984218</v>
       </c>
@@ -23047,135 +23047,135 @@
     <row r="30" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="320" t="s">
+      <c r="B35" s="310" t="s">
         <v>296</v>
       </c>
-      <c r="C35" s="321" t="str">
+      <c r="C35" s="311" t="str">
         <f>C20</f>
         <v>FY11</v>
       </c>
-      <c r="D35" s="321" t="str">
+      <c r="D35" s="311" t="str">
         <f>D20</f>
         <v>FY12</v>
       </c>
-      <c r="E35" s="321" t="str">
+      <c r="E35" s="311" t="str">
         <f>E20</f>
         <v>FY13</v>
       </c>
-      <c r="F35" s="321" t="str">
+      <c r="F35" s="311" t="str">
         <f>F20</f>
         <v>FY14</v>
       </c>
-      <c r="G35" s="321" t="str">
+      <c r="G35" s="311" t="str">
         <f>G20</f>
         <v>FY15</v>
       </c>
-      <c r="H35" s="335"/>
-      <c r="I35" s="322"/>
+      <c r="H35" s="325"/>
+      <c r="I35" s="312"/>
     </row>
     <row r="36" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="318" t="s">
+      <c r="B36" s="308" t="s">
         <v>297</v>
       </c>
-      <c r="C36" s="324">
+      <c r="C36" s="314">
         <f>SUM('Noname co'!G64,'Noname co'!G69)-'Noname co'!G50</f>
         <v>4.6922049999999995</v>
       </c>
-      <c r="D36" s="324">
+      <c r="D36" s="314">
         <f>SUM(BS!D38,BS!D33)-BS!D18</f>
         <v>5.4890720650088127</v>
       </c>
-      <c r="E36" s="324">
+      <c r="E36" s="314">
         <f>SUM(BS!E38,BS!E33)-BS!E18</f>
         <v>6.6322267403552644</v>
       </c>
-      <c r="F36" s="324">
+      <c r="F36" s="314">
         <f>SUM(BS!F38,BS!F33)-BS!F18</f>
         <v>7.9306022716445561</v>
       </c>
-      <c r="G36" s="324">
+      <c r="G36" s="314">
         <f>SUM(BS!G38,BS!G33)-BS!G18</f>
         <v>9.3791370418197282</v>
       </c>
     </row>
     <row r="37" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="318" t="s">
+      <c r="B37" s="308" t="s">
         <v>298</v>
       </c>
-      <c r="C37" s="324">
+      <c r="C37" s="314">
         <f>'Noname co'!G46-'Noname co'!G62</f>
         <v>4.6921000000000017</v>
       </c>
-      <c r="D37" s="324">
+      <c r="D37" s="314">
         <f>BS!D12-BS!D31</f>
         <v>5.4890720650088127</v>
       </c>
-      <c r="E37" s="324">
+      <c r="E37" s="314">
         <f>BS!E12-BS!E31</f>
         <v>6.6322267403552626</v>
       </c>
-      <c r="F37" s="324">
+      <c r="F37" s="314">
         <f>BS!F12-BS!F31</f>
         <v>7.9306022716445543</v>
       </c>
-      <c r="G37" s="324">
+      <c r="G37" s="314">
         <f>BS!G12-BS!G31</f>
         <v>9.3791370418197282</v>
       </c>
     </row>
     <row r="38" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="318" t="s">
+      <c r="B38" s="308" t="s">
         <v>299</v>
       </c>
-      <c r="C38" s="330">
+      <c r="C38" s="320">
         <f>('Noname co'!G43+'Noname co'!G44-'Noname co'!G59)/('Noname co'!G58+'Noname co'!G60)</f>
         <v>1.6485762144053604</v>
       </c>
-      <c r="D38" s="336">
+      <c r="D38" s="326">
         <f>SUM(BS!D9,BS!D10,-BS!D28)/SUM(BS!D27,BS!D29)</f>
         <v>1.6852199924359514</v>
       </c>
-      <c r="E38" s="336">
+      <c r="E38" s="326">
         <f>SUM(BS!E9,BS!E10,-BS!E28)/SUM(BS!E27,BS!E29)</f>
         <v>1.6577359586102363</v>
       </c>
-      <c r="F38" s="336">
+      <c r="F38" s="326">
         <f>SUM(BS!F9,BS!F10,-BS!F28)/SUM(BS!F27,BS!F29)</f>
         <v>1.6577359586102363</v>
       </c>
-      <c r="G38" s="336">
+      <c r="G38" s="326">
         <f>SUM(BS!G9,BS!G10,-BS!G28)/SUM(BS!G27,BS!G29)</f>
         <v>1.657735958610236</v>
       </c>
-      <c r="H38" s="330"/>
-      <c r="I38" s="330"/>
+      <c r="H38" s="320"/>
+      <c r="I38" s="320"/>
     </row>
     <row r="39" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="318" t="s">
+      <c r="B39" s="308" t="s">
         <v>300</v>
       </c>
-      <c r="C39" s="326">
+      <c r="C39" s="316">
         <f>'Noname co'!G46/('Noname co'!G58+'Noname co'!G60)</f>
         <v>2.24998324958124</v>
       </c>
-      <c r="D39" s="324">
+      <c r="D39" s="314">
         <f>BS!D12/SUM(BS!D27,BS!D29)</f>
         <v>2.2864293160888498</v>
       </c>
-      <c r="E39" s="324">
+      <c r="E39" s="314">
         <f>BS!E12/SUM(BS!E27,BS!E29)</f>
         <v>2.3366733721867381</v>
       </c>
-      <c r="F39" s="324">
+      <c r="F39" s="314">
         <f>BS!F12/SUM(BS!F27,BS!F29)</f>
         <v>2.4126707184205154</v>
       </c>
-      <c r="G39" s="324">
+      <c r="G39" s="314">
         <f>BS!G12/SUM(BS!G27,BS!G29)</f>
         <v>2.5027337677709278</v>
       </c>
-      <c r="H39" s="326"/>
-      <c r="I39" s="326"/>
+      <c r="H39" s="316"/>
+      <c r="I39" s="316"/>
     </row>
     <row r="40" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
@@ -23185,119 +23185,119 @@
     <row r="45" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="320" t="s">
+      <c r="B50" s="310" t="s">
         <v>301</v>
       </c>
-      <c r="C50" s="321" t="str">
+      <c r="C50" s="311" t="str">
         <f>C35</f>
         <v>FY11</v>
       </c>
-      <c r="D50" s="321" t="str">
+      <c r="D50" s="311" t="str">
         <f t="shared" ref="D50:F50" si="4">D35</f>
         <v>FY12</v>
       </c>
-      <c r="E50" s="321" t="str">
+      <c r="E50" s="311" t="str">
         <f t="shared" si="4"/>
         <v>FY13</v>
       </c>
-      <c r="F50" s="321" t="str">
+      <c r="F50" s="311" t="str">
         <f t="shared" si="4"/>
         <v>FY14</v>
       </c>
-      <c r="G50" s="321" t="str">
+      <c r="G50" s="311" t="str">
         <f>G35</f>
         <v>FY15</v>
       </c>
-      <c r="H50" s="323"/>
-      <c r="I50" s="323"/>
+      <c r="H50" s="313"/>
+      <c r="I50" s="313"/>
     </row>
     <row r="51" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="318" t="s">
+      <c r="B51" s="308" t="s">
         <v>302</v>
       </c>
-      <c r="C51" s="336">
+      <c r="C51" s="326">
         <f>'Noname co'!G20/'Noname co'!G8</f>
         <v>2.933036817395587E-2</v>
       </c>
-      <c r="D51" s="330">
+      <c r="D51" s="320">
         <f>PL!D19/PL!D6</f>
         <v>2.8956627568471224E-2</v>
       </c>
-      <c r="E51" s="330">
+      <c r="E51" s="320">
         <f>PL!E19/PL!E6</f>
         <v>3.6256627568471249E-2</v>
       </c>
-      <c r="F51" s="330">
+      <c r="F51" s="320">
         <f>PL!F19/PL!F6</f>
         <v>3.6256627568471339E-2</v>
       </c>
-      <c r="G51" s="330">
+      <c r="G51" s="320">
         <f>PL!G19/PL!G6</f>
         <v>3.6256627568471235E-2</v>
       </c>
-      <c r="H51" s="331"/>
-      <c r="I51" s="331"/>
+      <c r="H51" s="321"/>
+      <c r="I51" s="321"/>
     </row>
     <row r="52" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="318" t="s">
+      <c r="B52" s="308" t="s">
         <v>303</v>
       </c>
-      <c r="C52" s="336">
+      <c r="C52" s="326">
         <f>'Noname co'!G20/'Noname co'!G51</f>
         <v>3.9818852733981683E-2</v>
       </c>
-      <c r="D52" s="330">
+      <c r="D52" s="320">
         <f>PL!D19/BS!D21</f>
         <v>4.0568900897432432E-2</v>
       </c>
-      <c r="E52" s="330">
+      <c r="E52" s="320">
         <f>PL!E19/BS!E21</f>
         <v>5.0149743437193715E-2</v>
       </c>
-      <c r="F52" s="330">
+      <c r="F52" s="320">
         <f>PL!F19/BS!F21</f>
         <v>4.9202373070732761E-2</v>
       </c>
-      <c r="G52" s="330">
+      <c r="G52" s="320">
         <f>PL!G19/BS!G21</f>
         <v>4.8124990471912307E-2</v>
       </c>
-      <c r="H52" s="331"/>
-      <c r="I52" s="331"/>
+      <c r="H52" s="321"/>
+      <c r="I52" s="321"/>
     </row>
     <row r="53" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="318" t="s">
+      <c r="B53" s="308" t="s">
         <v>304</v>
       </c>
-      <c r="C53" s="337">
+      <c r="C53" s="327">
         <f>'Noname co'!G20/'Noname co'!G69</f>
         <v>0.13803689899583027</v>
       </c>
-      <c r="D53" s="337">
+      <c r="D53" s="327">
         <f>PL!D21/BS!D38</f>
         <v>0.1354862993672972</v>
       </c>
-      <c r="E53" s="337">
+      <c r="E53" s="327">
         <f>PL!E21/BS!E38</f>
         <v>0.16085987829150214</v>
       </c>
-      <c r="F53" s="337">
+      <c r="F53" s="327">
         <f>PL!F21/BS!F38</f>
         <v>0.15150293874469145</v>
       </c>
-      <c r="G53" s="337">
+      <c r="G53" s="327">
         <f>PL!G21/BS!G38</f>
         <v>0.14173271700616608</v>
       </c>
     </row>
     <row r="54" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="330"/>
-      <c r="D54" s="330"/>
-      <c r="E54" s="330"/>
-      <c r="F54" s="330"/>
-      <c r="G54" s="330"/>
-      <c r="H54" s="330"/>
-      <c r="I54" s="330"/>
+      <c r="C54" s="320"/>
+      <c r="D54" s="320"/>
+      <c r="E54" s="320"/>
+      <c r="F54" s="320"/>
+      <c r="G54" s="320"/>
+      <c r="H54" s="320"/>
+      <c r="I54" s="320"/>
     </row>
     <row r="55" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
@@ -23307,9 +23307,9 @@
     <row r="60" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="61" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C62" s="338"/>
-      <c r="D62" s="338"/>
-      <c r="E62" s="338"/>
+      <c r="C62" s="328"/>
+      <c r="D62" s="328"/>
+      <c r="E62" s="328"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
